--- a/ESP32-WROOM-32E/割り当てESP.xlsx
+++ b/ESP32-WROOM-32E/割り当てESP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryonr\kicad-ws\ESP32-WROOM-32E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74451C71-2634-40A1-9F98-B03E27CB7ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FBAF10-987E-4DCC-8EE5-D7D57E9E2009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B36AE0E9-D68F-47C3-9F2F-76012BD67B8F}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{B36AE0E9-D68F-47C3-9F2F-76012BD67B8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>0_GPIO39</t>
     <phoneticPr fontId="1"/>
@@ -434,11 +434,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ENC1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ENC2</t>
+    <t>MP7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MD8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -843,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F66D70-4D81-41AE-B7F4-50408A0630C8}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1044,13 +1052,17 @@
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
